--- a/public/coffee/kitchen.xlsx
+++ b/public/coffee/kitchen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A79CF3-CCE3-A943-AE68-C37A07012D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E07405-B1A4-2743-9768-0B451166E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -282,9 +282,6 @@
     <t>Бранчпури с копченой курицей, чесночным маслом и травами</t>
   </si>
   <si>
-    <t>Brunchpuri with smoked chicken, garlic butter and herbes</t>
-  </si>
-  <si>
     <t>ბრუნჩპური შებოლილი ქათმით, ნივრის კარაქით და მწვანილებით</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>syrniki with sour cream and cherries</t>
+  </si>
+  <si>
+    <t>Brunchpuri with chicken, garlic butter and herbes</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
   </sheetPr>
   <dimension ref="A1:AD1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -982,7 +982,7 @@
         <v>52</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>53</v>
@@ -29046,14 +29046,16 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="7" max="7" width="67.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -29085,7 +29087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
@@ -29184,30 +29186,30 @@
         <v>76</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="5">
         <v>15</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>brunchpuri with smoked chicken, garlic butter and herbes</v>
+        <v>brunchpuri with chicken, garlic butter and herbes</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>brunchpuri with smoked chicken, garlic butter and herbes_2</v>
+        <v>brunchpuri with chicken, garlic butter and herbes_2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
@@ -29242,7 +29244,7 @@
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -29274,25 +29276,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="str">
@@ -29306,22 +29308,22 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E3" s="5">
         <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="str">
@@ -29335,22 +29337,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E4" s="5">
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>

--- a/public/coffee/kitchen.xlsx
+++ b/public/coffee/kitchen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E07405-B1A4-2743-9768-0B451166E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D06A05-5395-204B-AB70-592CA93796FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>შვრიის ფაფა შებოლილი ქათმის და პესტოს სოუსით</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>Соленая овсяная каша с копченым куриным филе, сыром моцарелла и соусом песто</t>
@@ -217,9 +214,6 @@
     <t>ბრუნჩპური კრევეტებით და ანჩოუს კარაქით</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>Хрустящий хлеб с ароматным маслом, под сливочно-сырным скремблом, дополненный пикантной сальсой, ароматными травами, с креветками и маслом из анчоусов</t>
   </si>
   <si>
@@ -309,9 +303,6 @@
     <t>თასი ორაგულით</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t xml:space="preserve">В основу входит рис заправленный соусом на ваш выбор, сверху выкладывается кубики слабосоленного лосося, японский омлет, свежий огурец , консервированная кукуруза, чука салат и нори  </t>
   </si>
   <si>
@@ -352,6 +343,15 @@
   </si>
   <si>
     <t>Brunchpuri with chicken, garlic butter and herbes</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -757,8 +757,8 @@
   </sheetPr>
   <dimension ref="A1:AD1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -811,16 +811,16 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I12" si="0">LOWER($B2)</f>
@@ -833,17 +833,17 @@
     </row>
     <row r="3" spans="1:30" ht="13">
       <c r="A3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="8"/>
@@ -859,23 +859,23 @@
     </row>
     <row r="4" spans="1:30" ht="13">
       <c r="A4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10">
         <v>18</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="2" t="str">
@@ -889,23 +889,23 @@
     </row>
     <row r="5" spans="1:30" ht="13">
       <c r="A5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10">
         <v>14</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="2" t="str">
@@ -919,23 +919,23 @@
     </row>
     <row r="6" spans="1:30" ht="13">
       <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10">
         <v>15</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="str">
@@ -949,23 +949,23 @@
     </row>
     <row r="7" spans="1:30" ht="13">
       <c r="A7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10">
         <v>14</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="str">
@@ -979,13 +979,13 @@
     </row>
     <row r="8" spans="1:30" ht="13">
       <c r="A8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10">
@@ -1005,13 +1005,13 @@
     </row>
     <row r="9" spans="1:30" ht="13">
       <c r="A9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E9" s="5">
         <v>19</v>
@@ -29046,8 +29046,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -29089,26 +29089,26 @@
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I5" si="0">LOWER($B2)</f>
@@ -29121,25 +29121,25 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="E3" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="5">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -29152,25 +29152,25 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="E4" s="5">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="5">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -29183,25 +29183,25 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="5">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="5">
-        <v>15</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -29235,7 +29235,9 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -29278,23 +29280,23 @@
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="14" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="str">
@@ -29308,22 +29310,22 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="5">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="5">
-        <v>19</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="str">
@@ -29337,22 +29339,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="5">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
